--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">UploadAttendeePath</t>
   </si>
   <si>
-    <t xml:space="preserve">Mozila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cmsuat2.event2mobile.com/</t>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cms.event2mobile.com/</t>
   </si>
   <si>
     <t xml:space="preserve">/Users/goni/Documents/workspace/WebSpiders/Event2Mobile/Browser_Driver/geckodriver</t>
@@ -314,8 +314,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,6 +426,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://cms"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -70,13 +70,13 @@
     <t xml:space="preserve">https://cms.event2mobile.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/goni/Documents/workspace/WebSpiders/Event2Mobile/Browser_Driver/geckodriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/goni/Documents/workspace/WebSpiders/Event2Mobile/Browser_Driver/chromedriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/goni/Documents/workspace/WebSpiders/Event2Mobile/Browser_Driver/firefoxLogs</t>
+    <t xml:space="preserve">/Browser_Driver/geckodriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Browser_Driver/chromedriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Browser_Driver/firefoxLogs</t>
   </si>
   <si>
     <t xml:space="preserve">ethan.taylor@yopmail.com</t>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">#e2m321</t>
   </si>
   <si>
-    <t xml:space="preserve">Nokia 2 Pre Launch Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nokia 2</t>
+    <t xml:space="preserve">Xiomi Android One Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi</t>
   </si>
   <si>
     <t xml:space="preserve">Networking</t>
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Ground Floor</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/goni/Documents/E2MDatas/ImportUser_Template.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/goni/Documents/E2MDatas/ImportMapuserdata_Template.xlsx</t>
+    <t xml:space="preserve">/Test Data/ImportUser_Template.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/ImportMapuserdata_Template.xlsx</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,7 +427,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://cms"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://cms.event2mobile.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">#e2m321</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiomi Android One Event</t>
+    <t xml:space="preserve">Real Me Pre Launch Event</t>
   </si>
   <si>
     <t xml:space="preserve">Redmi</t>
@@ -314,8 +314,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">BrowserName</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">UploadAttendeePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome</t>
   </si>
   <si>
     <t xml:space="preserve">https://cms.event2mobile.com/</t>
@@ -314,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,47 +379,47 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">BrowserName</t>
   </si>
@@ -64,7 +64,16 @@
     <t xml:space="preserve">UploadAttendeePath</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cms.event2mobile.com/</t>
+    <t xml:space="preserve">ResourcesInAppPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourcesOutsidePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cmstest.webspiders.com/</t>
   </si>
   <si>
     <t xml:space="preserve">/Browser_Driver/geckodriver</t>
@@ -76,19 +85,19 @@
     <t xml:space="preserve">/Browser_Driver/firefoxLogs</t>
   </si>
   <si>
-    <t xml:space="preserve">ethan.taylor@yopmail.com</t>
+    <t xml:space="preserve">Ethan.taylor@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">#e2m321</t>
   </si>
   <si>
-    <t xml:space="preserve">Real Me Pre Launch Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Networking</t>
+    <t xml:space="preserve">SGP Summit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGPS18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration</t>
   </si>
   <si>
     <t xml:space="preserve">Parking</t>
@@ -101,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">/Test Data/ImportMapuserdata_Template.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/CustomResourceInApp.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/CustomResourceOutSide.xlsx</t>
   </si>
 </sst>
 </file>
@@ -309,29 +324,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="82.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="56.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="64.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -377,54 +394,67 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1234</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://cms.event2mobile.com/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://cmstest.webspiders.com/"/>
+    <hyperlink ref="F2" r:id="rId2" display="Ethan.taylor@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">BrowserName</t>
   </si>
@@ -70,10 +70,16 @@
     <t xml:space="preserve">ResourcesOutsidePath</t>
   </si>
   <si>
+    <t xml:space="preserve">E2MDataImport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeetingUpload</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cmstest.webspiders.com/</t>
+    <t xml:space="preserve">https://lacitycms.event2mobile.com</t>
   </si>
   <si>
     <t xml:space="preserve">/Browser_Driver/geckodriver</t>
@@ -85,16 +91,16 @@
     <t xml:space="preserve">/Browser_Driver/firefoxLogs</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethan.taylor@yopmail.com</t>
+    <t xml:space="preserve">clientadmin@webspiders.com</t>
   </si>
   <si>
     <t xml:space="preserve">#e2m321</t>
   </si>
   <si>
-    <t xml:space="preserve">SGP Summit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGPS18</t>
+    <t xml:space="preserve">Lacity Talent Games 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talent18</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
@@ -116,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">/Test Data/CustomResourceOutSide.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/E2MDataImportTemplate.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/Meeting_Upload.xlsx</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,6 +179,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monaco"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +262,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,22 +346,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
@@ -348,7 +370,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -400,61 +424,73 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://cmstest.webspiders.com/"/>
-    <hyperlink ref="F2" r:id="rId2" display="Ethan.taylor@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://lacitycms.event2mobile.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="clientadmin@webspiders.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">BrowserName</t>
   </si>
@@ -76,6 +76,12 @@
     <t xml:space="preserve">MeetingUpload</t>
   </si>
   <si>
+    <t xml:space="preserve">ExhibitorLogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SponsorsLogo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chrome</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">/Test Data/Meeting_Upload.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/ExhibitorLogo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/SponsorLogo.jpg</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,6 +189,13 @@
       <sz val="11"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Monaco"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -236,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +395,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="37.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="34.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -430,61 +455,73 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -82,10 +82,10 @@
     <t xml:space="preserve">SponsorsLogo</t>
   </si>
   <si>
-    <t xml:space="preserve">Chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lacitycms.event2mobile.com</t>
+    <t xml:space="preserve">Mozila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cms.event2mobile.com/</t>
   </si>
   <si>
     <t xml:space="preserve">/Browser_Driver/geckodriver</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">/Browser_Driver/firefoxLogs</t>
   </si>
   <si>
-    <t xml:space="preserve">clientadmin@webspiders.com</t>
+    <t xml:space="preserve">ethan.taylor@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">#e2m321</t>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,12 +198,6 @@
       <name val="Monaco"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Monaco"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,10 +279,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,13 +361,13 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.52"/>
@@ -387,13 +377,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="34.63"/>
@@ -517,17 +507,17 @@
       <c r="R2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://lacitycms.event2mobile.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="clientadmin@webspiders.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://cms.event2mobile.com/"/>
+    <hyperlink ref="F2" r:id="rId2" display="ethan.taylor@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">SponsorsLogo</t>
   </si>
   <si>
-    <t xml:space="preserve">Mozila</t>
+    <t xml:space="preserve">Chrome</t>
   </si>
   <si>
     <t xml:space="preserve">https://cms.event2mobile.com/</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">#e2m321</t>
   </si>
   <si>
-    <t xml:space="preserve">Lacity Talent Games 2018</t>
+    <t xml:space="preserve">Real Me Pre Launch Event</t>
   </si>
   <si>
     <t xml:space="preserve">Talent18</t>
@@ -361,8 +361,8 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,7 +381,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.72"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">BrowserName</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">SponsorsLogo</t>
   </si>
   <si>
+    <t xml:space="preserve">AgendaUpload</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chrome</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">/Test Data/SponsorLogo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Test Data/Event_agenda_import.xlsx</t>
   </si>
 </sst>
 </file>
@@ -359,35 +365,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="34.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="42.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="38.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="48.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="37.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="34.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -451,67 +457,73 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
